--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H2">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I2">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J2">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N2">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O2">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P2">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q2">
-        <v>11142.33799086007</v>
+        <v>9739.948230126371</v>
       </c>
       <c r="R2">
-        <v>44569.35196344027</v>
+        <v>38959.79292050548</v>
       </c>
       <c r="S2">
-        <v>0.01109653877529125</v>
+        <v>0.01085395482755493</v>
       </c>
       <c r="T2">
-        <v>0.005884214608460508</v>
+        <v>0.005948630689102138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H3">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I3">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J3">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N3">
         <v>0.236996</v>
       </c>
       <c r="O3">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P3">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q3">
-        <v>2.174436483030667</v>
+        <v>1.894026726264667</v>
       </c>
       <c r="R3">
-        <v>13.046618898184</v>
+        <v>11.364160357588</v>
       </c>
       <c r="S3">
-        <v>2.165498728197821E-06</v>
+        <v>2.110656036699665E-06</v>
       </c>
       <c r="T3">
-        <v>1.722464028076604E-06</v>
+        <v>1.735152781662907E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H4">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I4">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J4">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N4">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O4">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P4">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q4">
-        <v>5593.312188002077</v>
+        <v>1629.226603897721</v>
       </c>
       <c r="R4">
-        <v>33559.87312801246</v>
+        <v>9775.359623386326</v>
       </c>
       <c r="S4">
-        <v>0.005570321563336761</v>
+        <v>0.001815569399831108</v>
       </c>
       <c r="T4">
-        <v>0.004430701525117921</v>
+        <v>0.001492564510579831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H5">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I5">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J5">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N5">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O5">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P5">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q5">
-        <v>876.591217991263</v>
+        <v>1450.500680187948</v>
       </c>
       <c r="R5">
-        <v>3506.364871965052</v>
+        <v>5802.002720751791</v>
       </c>
       <c r="S5">
-        <v>0.0008729880971568887</v>
+        <v>0.001616401698255579</v>
       </c>
       <c r="T5">
-        <v>0.0004629235672785613</v>
+        <v>0.0008858869325445687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H6">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I6">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J6">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N6">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O6">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P6">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q6">
-        <v>9347.284110290515</v>
+        <v>1237.071757153205</v>
       </c>
       <c r="R6">
-        <v>56083.70466174309</v>
+        <v>7422.430542919233</v>
       </c>
       <c r="S6">
-        <v>0.009308863243834904</v>
+        <v>0.001378561841740989</v>
       </c>
       <c r="T6">
-        <v>0.007404383050889223</v>
+        <v>0.001133304229964206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H7">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I7">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J7">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N7">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O7">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P7">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q7">
-        <v>2434.145164741873</v>
+        <v>9191.452919800595</v>
       </c>
       <c r="R7">
-        <v>14604.87098845124</v>
+        <v>55148.71751880356</v>
       </c>
       <c r="S7">
-        <v>0.00242413990918265</v>
+        <v>0.01024272536506276</v>
       </c>
       <c r="T7">
-        <v>0.001928190369369067</v>
+        <v>0.008420459373753859</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J8">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N8">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O8">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P8">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q8">
-        <v>336054.7477260819</v>
+        <v>337249.2394229999</v>
       </c>
       <c r="R8">
-        <v>2016328.486356491</v>
+        <v>2023495.436537999</v>
       </c>
       <c r="S8">
-        <v>0.3346734358464158</v>
+        <v>0.3758221218263093</v>
       </c>
       <c r="T8">
-        <v>0.2662033216145088</v>
+        <v>0.3089602421041794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J9">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N9">
         <v>0.236996</v>
       </c>
       <c r="O9">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P9">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q9">
         <v>65.58136221955111</v>
       </c>
       <c r="R9">
-        <v>590.2322599759599</v>
+        <v>590.23225997596</v>
       </c>
       <c r="S9">
-        <v>6.531179806272394E-05</v>
+        <v>7.308223064870335E-05</v>
       </c>
       <c r="T9">
-        <v>7.792469788172173E-05</v>
+        <v>9.012044141392609E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J10">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N10">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O10">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P10">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q10">
-        <v>168695.2161955705</v>
+        <v>56412.56195928412</v>
       </c>
       <c r="R10">
-        <v>1518256.945760134</v>
+        <v>507713.0576335571</v>
       </c>
       <c r="S10">
-        <v>0.1680018151716287</v>
+        <v>0.06286474884115162</v>
       </c>
       <c r="T10">
-        <v>0.2004460308726649</v>
+        <v>0.07752088113146148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J11">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N11">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O11">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P11">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q11">
-        <v>26438.13541310589</v>
+        <v>50224.11204023233</v>
       </c>
       <c r="R11">
-        <v>158628.8124786354</v>
+        <v>301344.6722413939</v>
       </c>
       <c r="S11">
-        <v>0.02632946469570211</v>
+        <v>0.05596849495078544</v>
       </c>
       <c r="T11">
-        <v>0.02094277647283701</v>
+        <v>0.0460112344269956</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J12">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N12">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O12">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P12">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q12">
-        <v>281915.627239488</v>
+        <v>42834.05818535646</v>
       </c>
       <c r="R12">
-        <v>2537240.645155392</v>
+        <v>385506.5236682081</v>
       </c>
       <c r="S12">
-        <v>0.2807568475834815</v>
+        <v>0.04773320367213969</v>
       </c>
       <c r="T12">
-        <v>0.3349761172576564</v>
+        <v>0.05886160489150846</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J13">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N13">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O13">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P13">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q13">
-        <v>73414.218805514</v>
+        <v>318257.3904045118</v>
       </c>
       <c r="R13">
-        <v>660727.9692496259</v>
+        <v>2864316.513640606</v>
       </c>
       <c r="S13">
-        <v>0.07311245865107893</v>
+        <v>0.3546580800400483</v>
       </c>
       <c r="T13">
-        <v>0.08723180835266049</v>
+        <v>0.4373421889359335</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H14">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I14">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J14">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N14">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O14">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P14">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q14">
-        <v>409.7975197798501</v>
+        <v>55.27290131817733</v>
       </c>
       <c r="R14">
-        <v>2458.7851186791</v>
+        <v>331.6374079090639</v>
       </c>
       <c r="S14">
-        <v>0.0004081130972678641</v>
+        <v>6.159473951204097E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003246181215797084</v>
+        <v>5.063652330923493E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H15">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I15">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J15">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N15">
         <v>0.236996</v>
       </c>
       <c r="O15">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P15">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q15">
-        <v>0.07997232523333334</v>
+        <v>0.01074834792355556</v>
       </c>
       <c r="R15">
-        <v>0.7197509271000001</v>
+        <v>0.096735131312</v>
       </c>
       <c r="S15">
-        <v>7.96436087856807E-08</v>
+        <v>1.19776902378466E-08</v>
       </c>
       <c r="T15">
-        <v>9.50242427390211E-08</v>
+        <v>1.477013935908318E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H16">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I16">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J16">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N16">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O16">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P16">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q16">
-        <v>205.7131513940667</v>
+        <v>9.245642705127556</v>
       </c>
       <c r="R16">
-        <v>1851.4183625466</v>
+        <v>83.210784346148</v>
       </c>
       <c r="S16">
-        <v>0.0002048675926815447</v>
+        <v>1.030311310719002E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002444312626354783</v>
+        <v>1.270515545182044E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H17">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I17">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J17">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N17">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O17">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P17">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q17">
-        <v>32.239634741675</v>
+        <v>8.231397032480666</v>
       </c>
       <c r="R17">
-        <v>193.43780845005</v>
+        <v>49.388382194884</v>
       </c>
       <c r="S17">
-        <v>3.21071176718639E-05</v>
+        <v>9.172863083796462E-06</v>
       </c>
       <c r="T17">
-        <v>2.553839192555563E-05</v>
+        <v>7.540934486203648E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H18">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I18">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J18">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N18">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O18">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P18">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q18">
-        <v>343.7782849718583</v>
+        <v>7.020216487921334</v>
       </c>
       <c r="R18">
-        <v>3094.004564746725</v>
+        <v>63.181948391292</v>
       </c>
       <c r="S18">
-        <v>0.0003423652264383425</v>
+        <v>7.823153762139234E-06</v>
       </c>
       <c r="T18">
-        <v>0.0004084821981136315</v>
+        <v>9.647024509719355E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H19">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I19">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J19">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N19">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O19">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P19">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q19">
-        <v>89.52399865392502</v>
+        <v>52.16026391551156</v>
       </c>
       <c r="R19">
-        <v>805.715987885325</v>
+        <v>469.442375239604</v>
       </c>
       <c r="S19">
-        <v>8.91560212225909E-05</v>
+        <v>5.81260942004987E-05</v>
       </c>
       <c r="T19">
-        <v>0.000106373675571366</v>
+        <v>7.167746825074957E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H20">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I20">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J20">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N20">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O20">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P20">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q20">
-        <v>22663.6028237449</v>
+        <v>28710.96470606823</v>
       </c>
       <c r="R20">
-        <v>90654.41129497961</v>
+        <v>114843.8588242729</v>
       </c>
       <c r="S20">
-        <v>0.02257044686023509</v>
+        <v>0.03199478134917616</v>
       </c>
       <c r="T20">
-        <v>0.01196853864289687</v>
+        <v>0.0175350958474273</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H21">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I21">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J21">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,28 +1739,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N21">
         <v>0.236996</v>
       </c>
       <c r="O21">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P21">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q21">
-        <v>4.422820852974667</v>
+        <v>5.583123565476001</v>
       </c>
       <c r="R21">
-        <v>26.536925117848</v>
+        <v>33.498741392856</v>
       </c>
       <c r="S21">
-        <v>4.404641389577148E-06</v>
+        <v>6.221693333943696E-06</v>
       </c>
       <c r="T21">
-        <v>3.503505336360982E-06</v>
+        <v>5.114802368237378E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H22">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I22">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J22">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N22">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O22">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P22">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q22">
-        <v>11376.8408391555</v>
+        <v>4802.558126336979</v>
       </c>
       <c r="R22">
-        <v>68261.04503493301</v>
+        <v>28815.34875802188</v>
       </c>
       <c r="S22">
-        <v>0.01133007772835129</v>
+        <v>0.005351850721211904</v>
       </c>
       <c r="T22">
-        <v>0.00901208163656525</v>
+        <v>0.004399711987404632</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H23">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I23">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J23">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N23">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O23">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P23">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q23">
-        <v>1782.993409429261</v>
+        <v>4275.718191826961</v>
       </c>
       <c r="R23">
-        <v>7131.973637717044</v>
+        <v>17102.87276730784</v>
       </c>
       <c r="S23">
-        <v>0.001775664633405485</v>
+        <v>0.004764753468185791</v>
       </c>
       <c r="T23">
-        <v>0.0009415901649329375</v>
+        <v>0.002611376144195805</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H24">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I24">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J24">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N24">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O24">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P24">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q24">
-        <v>19012.44915834527</v>
+        <v>3646.582375935141</v>
       </c>
       <c r="R24">
-        <v>114074.6949500716</v>
+        <v>21879.49425561085</v>
       </c>
       <c r="S24">
-        <v>0.01893430081477425</v>
+        <v>0.004063660242149401</v>
       </c>
       <c r="T24">
-        <v>0.01506057317215422</v>
+        <v>0.00334070130343167</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H25">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I25">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J25">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N25">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O25">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P25">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q25">
-        <v>4951.070347560931</v>
+        <v>27094.13583551037</v>
       </c>
       <c r="R25">
-        <v>29706.42208536559</v>
+        <v>162564.8150130622</v>
       </c>
       <c r="S25">
-        <v>0.004930719579317291</v>
+        <v>0.03019302767345934</v>
       </c>
       <c r="T25">
-        <v>0.003921954327341076</v>
+        <v>0.0248214370525039</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H26">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I26">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J26">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N26">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O26">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P26">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q26">
-        <v>9804.216092399092</v>
+        <v>117.671512729805</v>
       </c>
       <c r="R26">
-        <v>58825.29655439455</v>
+        <v>706.0290763788299</v>
       </c>
       <c r="S26">
-        <v>0.009763917062997245</v>
+        <v>0.0001311301922230841</v>
       </c>
       <c r="T26">
-        <v>0.007766338393619124</v>
+        <v>0.000107801040927377</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H27">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I27">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J27">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N27">
         <v>0.236996</v>
       </c>
       <c r="O27">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P27">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q27">
-        <v>1.913300886790222</v>
+        <v>0.02288235879333334</v>
       </c>
       <c r="R27">
-        <v>17.219707981112</v>
+        <v>0.20594122914</v>
       </c>
       <c r="S27">
-        <v>1.905436497841154E-06</v>
+        <v>2.549952862403684E-08</v>
       </c>
       <c r="T27">
-        <v>2.273411050243641E-06</v>
+        <v>3.144442575229491E-08</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H28">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I28">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J28">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N28">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O28">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P28">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q28">
-        <v>4921.591986206572</v>
+        <v>19.68322156654833</v>
       </c>
       <c r="R28">
-        <v>44294.32787585915</v>
+        <v>177.148994098935</v>
       </c>
       <c r="S28">
-        <v>0.004901362385156694</v>
+        <v>2.193449007082646E-05</v>
       </c>
       <c r="T28">
-        <v>0.005847904887036898</v>
+        <v>2.704824291521994E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H29">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I29">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J29">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N29">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O29">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P29">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q29">
-        <v>771.3183474541393</v>
+        <v>17.5239749966425</v>
       </c>
       <c r="R29">
-        <v>4627.910084724836</v>
+        <v>105.143849979855</v>
       </c>
       <c r="S29">
-        <v>0.000768147937860012</v>
+        <v>1.952827967036247E-05</v>
       </c>
       <c r="T29">
-        <v>0.0006109942130080189</v>
+        <v>1.605403637634123E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H30">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I30">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J30">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N30">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O30">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P30">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q30">
-        <v>8224.736439471691</v>
+        <v>14.945470096985</v>
       </c>
       <c r="R30">
-        <v>74022.62795524523</v>
+        <v>134.509230872865</v>
       </c>
       <c r="S30">
-        <v>0.008190929667724415</v>
+        <v>1.66548582678805E-05</v>
       </c>
       <c r="T30">
-        <v>0.009772747629989779</v>
+        <v>2.053773079262732E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H31">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I31">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J31">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N31">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O31">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P31">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q31">
-        <v>2141.820254866959</v>
+        <v>111.0449607845283</v>
       </c>
       <c r="R31">
-        <v>19276.38229380263</v>
+        <v>999.404647060755</v>
       </c>
       <c r="S31">
-        <v>0.00213301656504506</v>
+        <v>0.0001237457283864066</v>
       </c>
       <c r="T31">
-        <v>0.002544940980620613</v>
+        <v>0.0001525955018926154</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H32">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I32">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J32">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N32">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O32">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P32">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q32">
-        <v>534.400740058314</v>
+        <v>51.35072068408266</v>
       </c>
       <c r="R32">
-        <v>3206.404440349884</v>
+        <v>308.104324104496</v>
       </c>
       <c r="S32">
-        <v>0.0005322041512711008</v>
+        <v>5.722395946042851E-05</v>
       </c>
       <c r="T32">
-        <v>0.0004233216552938879</v>
+        <v>4.70433413635633E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H33">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I33">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J33">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2483,28 +2483,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M33">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N33">
         <v>0.236996</v>
       </c>
       <c r="O33">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P33">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q33">
-        <v>0.1042887468226667</v>
+        <v>0.009985642129777778</v>
       </c>
       <c r="R33">
-        <v>0.9385987214039999</v>
+        <v>0.089870779168</v>
       </c>
       <c r="S33">
-        <v>1.038600807024098E-07</v>
+        <v>1.112774996744836E-08</v>
       </c>
       <c r="T33">
-        <v>1.239173572121523E-07</v>
+        <v>1.372204611310726E-08</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H34">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I34">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J34">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N34">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O34">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P34">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q34">
-        <v>268.2623857845093</v>
+        <v>8.589569296585777</v>
       </c>
       <c r="R34">
-        <v>2414.361472060584</v>
+        <v>77.306123669272</v>
       </c>
       <c r="S34">
-        <v>0.0002671597261052189</v>
+        <v>9.57200130129287E-06</v>
       </c>
       <c r="T34">
-        <v>0.0003187531435425993</v>
+        <v>1.180359404509356E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H35">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I35">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J35">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N35">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O35">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P35">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q35">
-        <v>42.042432746827</v>
+        <v>7.647294782329333</v>
       </c>
       <c r="R35">
-        <v>252.254596480962</v>
+        <v>45.883768693976</v>
       </c>
       <c r="S35">
-        <v>4.186962247648799E-05</v>
+        <v>8.52195413766816E-06</v>
       </c>
       <c r="T35">
-        <v>3.330360699168698E-05</v>
+        <v>7.0058276526668E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H36">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I36">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J36">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N36">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O36">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P36">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q36">
-        <v>448.3076666828876</v>
+        <v>6.522059950098667</v>
       </c>
       <c r="R36">
-        <v>4034.769000145988</v>
+        <v>58.698539550888</v>
       </c>
       <c r="S36">
-        <v>0.0004464649529288799</v>
+        <v>7.268020569351386E-06</v>
       </c>
       <c r="T36">
-        <v>0.0005326854810879338</v>
+        <v>8.962468935354843E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H37">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I37">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J37">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N37">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O37">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P37">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q37">
-        <v>116.744706408517</v>
+        <v>48.45895690756178</v>
       </c>
       <c r="R37">
-        <v>1050.702357676653</v>
+        <v>436.130612168056</v>
       </c>
       <c r="S37">
-        <v>0.0001162648415920209</v>
+        <v>5.400145019644342E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001387177037542826</v>
+        <v>6.65912149300546E-05</v>
       </c>
     </row>
   </sheetData>
